--- a/biology/Zoologie/Buse_aguia/Buse_aguia.xlsx
+++ b/biology/Zoologie/Buse_aguia/Buse_aguia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranoaetus melanoleucus
 La Buse aguia (Geranoaetus melanoleucus), dite aussi Buse bleue du Chili ou Buse noir et blanc, est une espèce de rapaces de la famille des Accipitridae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La buse aguia adulte possède un bec jaune et noir, une poitrine gris souris foncé, des pattes jaunes, des ailes aux rayures gris pâle et gris foncé, le ventre gris perle avec de fines stries noires. Elle mesure jusqu’à 65 cm pour le mâle et jusqu’à 75 cm pour la femelle, pour une envergure d'environ 1,80 m.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit au Pérou, en Équateur, en Colombie, au Venezuela, en Argentine et au Chili jusqu’en Terre de Feu.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les terrains découverts et les forêts de montagnes coupées d'étendues rocheuses. Il est très présent en région de la Cordillère et précordillère.
 </t>
@@ -607,8 +625,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime alimentaire
-Ce rapace diurne s’alimente de lapins, de rongeurs, d’insectes et de reptiles.
+          <t>Régime alimentaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rapace diurne s’alimente de lapins, de rongeurs, d’insectes et de reptiles.
 </t>
         </is>
       </c>
@@ -637,7 +660,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 Geranoaetus melanoleucus australis  Swann, 1922 ;
